--- a/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
+++ b/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allison\soc_xsit\soc_xsit_expts\soc_xsit_ipad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15024" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>subid</t>
   </si>
@@ -46,6 +51,24 @@
   </si>
   <si>
     <t>SOC_XSIT_1</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_2</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_3</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_4</t>
   </si>
 </sst>
 </file>
@@ -249,6 +272,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -577,12 +608,12 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,298 +639,371 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B2" s="2">
+        <v>41849</v>
+      </c>
+      <c r="C2" s="2">
+        <v>40079</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>4.8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>41849</v>
+      </c>
+      <c r="C3" s="2">
+        <v>40618</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>3.3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>41849</v>
+      </c>
+      <c r="C4" s="2">
+        <v>39775</v>
+      </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>5.6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>41849</v>
+      </c>
+      <c r="C5" s="2">
+        <v>40108</v>
+      </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>4.7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="12.75" customHeight="1">
+    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="12.75" customHeight="1">
+    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="12.75" customHeight="1">
+    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="12.75" customHeight="1">
+    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="12.75" customHeight="1">
+    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="12.75" customHeight="1">
+    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="12.75" customHeight="1">
+    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="12.75" customHeight="1">
+    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="12.75" customHeight="1">
+    <row r="25" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" ht="12.75" customHeight="1">
+    <row r="26" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="12.75" customHeight="1">
+    <row r="27" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4" ht="12.75" customHeight="1">
+    <row r="28" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" ht="12.75" customHeight="1">
+    <row r="29" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:4" ht="12.75" customHeight="1">
+    <row r="30" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:4" ht="12.75" customHeight="1">
+    <row r="31" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:4" ht="12.75" customHeight="1">
+    <row r="32" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="2:4" ht="12.75" customHeight="1">
+    <row r="33" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="2:4" ht="12.75" customHeight="1">
+    <row r="34" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="2:4" ht="12.75" customHeight="1">
+    <row r="35" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="2:4" ht="12.75" customHeight="1">
+    <row r="36" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="2:4" ht="12.75" customHeight="1">
+    <row r="37" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="2:4" ht="12.75" customHeight="1">
+    <row r="38" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="2:4" ht="12.75" customHeight="1">
+    <row r="39" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="2:4" ht="12.75" customHeight="1">
+    <row r="40" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="2:4" ht="12.75" customHeight="1">
+    <row r="41" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="2:4" ht="12.75" customHeight="1">
+    <row r="42" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="2:4" ht="12.75" customHeight="1">
+    <row r="43" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="2:4" ht="12.75" customHeight="1">
+    <row r="44" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="2:4" ht="12.75" customHeight="1">
+    <row r="45" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="2:4" ht="12.75" customHeight="1">
+    <row r="46" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="2:4" ht="12.75" customHeight="1">
+    <row r="47" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="2:4" ht="12.75" customHeight="1">
+    <row r="48" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="2:4" ht="12.75" customHeight="1">
+    <row r="49" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="2:4" ht="12.75" customHeight="1">
+    <row r="50" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="2:4" ht="12.75" customHeight="1">
+    <row r="51" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="2:4" ht="12.75" customHeight="1">
+    <row r="52" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="2:4" ht="12.75" customHeight="1">
+    <row r="53" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="2:4" ht="12.75" customHeight="1">
+    <row r="54" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="2:4" ht="12.75" customHeight="1">
+    <row r="55" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="2:4" ht="12.75" customHeight="1">
+    <row r="56" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="2:4" ht="12.75" customHeight="1">
+    <row r="57" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="2:4" ht="12.75" customHeight="1">
+    <row r="58" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="2:4" ht="12.75" customHeight="1">
+    <row r="59" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="2:4" ht="12.75" customHeight="1">
+    <row r="60" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>

--- a/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
+++ b/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>subid</t>
   </si>
@@ -69,6 +69,45 @@
   </si>
   <si>
     <t>SOC_XSIT_4</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_5</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_6</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_7</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_8</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_9</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_10</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_11</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_12</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_13</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_14</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_15</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_16</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_17</t>
   </si>
 </sst>
 </file>
@@ -608,7 +647,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -734,136 +773,347 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>41851</v>
+      </c>
+      <c r="C6" s="2">
+        <v>39957</v>
+      </c>
       <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>41851</v>
+      </c>
+      <c r="C7" s="2">
+        <v>39968</v>
+      </c>
       <c r="D7" s="1"/>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
+        <v>41851</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40147</v>
+      </c>
       <c r="D8" s="1"/>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2">
+        <v>41851</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40372</v>
+      </c>
       <c r="D9" s="1"/>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>3.11</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>41851</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40315</v>
+      </c>
       <c r="D10" s="1"/>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>41851</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40386</v>
+      </c>
       <c r="D11" s="1"/>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>41851</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40289</v>
+      </c>
       <c r="D12" s="1"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>4.2</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C13" s="2">
+        <v>40339</v>
+      </c>
       <c r="D13" s="1"/>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40304</v>
+      </c>
       <c r="D14" s="1"/>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C15" s="2">
+        <v>39995</v>
+      </c>
       <c r="D15" s="1"/>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C16" s="2">
+        <v>39948</v>
+      </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C17" s="2">
+        <v>39971</v>
+      </c>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2">
+        <v>41855</v>
+      </c>
+      <c r="C18" s="2">
+        <v>40421</v>
+      </c>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>3.9</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>

--- a/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
+++ b/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
@@ -647,7 +647,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>

--- a/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
+++ b/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>subid</t>
   </si>
@@ -108,6 +108,36 @@
   </si>
   <si>
     <t>SOC_XSIT_17</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_18</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_19</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_20</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_21</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_22</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_23</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_24</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_25</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -647,7 +677,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1049,44 +1079,108 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2">
+        <v>41856</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2">
+        <v>41856</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2">
+        <v>41856</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2">
+        <v>41856</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2">
+        <v>41856</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2">
+        <v>41857</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2">
+        <v>41857</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2">
+        <v>41858</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>

--- a/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
+++ b/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>subid</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>SOC_XSIT_47</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_48</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_49</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_50</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_51</t>
   </si>
 </sst>
 </file>
@@ -730,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1812,50 +1824,126 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="2">
+        <v>41934</v>
+      </c>
+      <c r="C48" s="2">
+        <v>40355</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48">
+        <v>4.04</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="2">
+        <v>41934</v>
+      </c>
+      <c r="C49" s="2">
+        <v>40498</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49">
+        <v>3.11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="2">
+        <v>41936</v>
+      </c>
+      <c r="C50" s="2">
+        <v>40287</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="2">
+        <v>41936</v>
+      </c>
+      <c r="C51" s="2">
+        <v>40476</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>

--- a/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
+++ b/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allison\soc_xsit\soc_xsit_expts\soc_xsit_ipad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15024" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>subid</t>
   </si>
@@ -50,18 +45,12 @@
     <t>SOC_XSIT_1</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
     <t>SOC_XSIT_2</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>SOC_XSIT_3</t>
   </si>
   <si>
@@ -176,9 +165,6 @@
     <t>SOC_XSIT_38</t>
   </si>
   <si>
-    <t>no social</t>
-  </si>
-  <si>
     <t>SOC_XSIT_39</t>
   </si>
   <si>
@@ -201,6 +187,12 @@
   </si>
   <si>
     <t>SOC_XSIT_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include </t>
+  </si>
+  <si>
+    <t>no-social</t>
   </si>
 </sst>
 </file>
@@ -250,7 +242,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -315,8 +307,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -326,8 +320,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -359,6 +354,7 @@
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -390,6 +386,7 @@
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
@@ -728,15 +725,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="17.1640625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,8 +758,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -770,21 +773,24 @@
         <v>40079</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>4.0999999999999996</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>41849</v>
@@ -793,21 +799,24 @@
         <v>40618</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>3.04</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>41849</v>
@@ -816,21 +825,24 @@
         <v>39775</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>5.08</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>41849</v>
@@ -839,21 +851,24 @@
         <v>40108</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>4.09</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>41851</v>
@@ -862,21 +877,24 @@
         <v>39957</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>5.0199999999999996</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>41851</v>
@@ -885,21 +903,24 @@
         <v>39968</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>5.01</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>41851</v>
@@ -908,21 +929,24 @@
         <v>40147</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>4.08</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>41851</v>
@@ -931,21 +955,24 @@
         <v>40372</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>41851</v>
@@ -954,21 +981,24 @@
         <v>40315</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>4.0199999999999996</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>41851</v>
@@ -977,21 +1007,24 @@
         <v>40386</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>41851</v>
@@ -1000,21 +1033,24 @@
         <v>40289</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>4.3</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>41852</v>
@@ -1023,21 +1059,24 @@
         <v>40339</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>4.01</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>41852</v>
@@ -1046,21 +1085,24 @@
         <v>40304</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>4.0199999999999996</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.5" customHeight="1">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>41852</v>
@@ -1069,21 +1111,24 @@
         <v>39995</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>5.01</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>41852</v>
@@ -1092,21 +1137,24 @@
         <v>39948</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>5.0199999999999996</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>41852</v>
@@ -1115,21 +1163,24 @@
         <v>39971</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>5.01</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>41855</v>
@@ -1138,21 +1189,24 @@
         <v>40421</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>3.11</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>41856</v>
@@ -1161,21 +1215,24 @@
         <v>39792</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>5.07</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
         <v>41856</v>
@@ -1184,21 +1241,24 @@
         <v>40292</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>4.03</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <v>41856</v>
@@ -1207,21 +1267,24 @@
         <v>40081</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21">
         <v>4.0999999999999996</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1">
         <v>41856</v>
@@ -1230,21 +1293,24 @@
         <v>40710</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>3.01</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1">
         <v>41856</v>
@@ -1253,21 +1319,24 @@
         <v>40079</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>4.0999999999999996</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1">
         <v>41857</v>
@@ -1276,21 +1345,24 @@
         <v>39777</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>5.09</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>41857</v>
@@ -1299,21 +1371,24 @@
         <v>40070</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>4.0999999999999996</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
         <v>41858</v>
@@ -1322,21 +1397,24 @@
         <v>40218</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>4.05</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1">
         <v>41869</v>
@@ -1345,21 +1423,24 @@
         <v>39776</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>5.08</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>41869</v>
@@ -1368,21 +1449,24 @@
         <v>40032</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>41869</v>
@@ -1391,21 +1475,24 @@
         <v>39996</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>5.01</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>41869</v>
@@ -1414,21 +1501,24 @@
         <v>40193</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>4.08</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1">
         <v>41869</v>
@@ -1437,21 +1527,24 @@
         <v>39455</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>6.08</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1">
         <v>41872</v>
@@ -1460,21 +1553,24 @@
         <v>39948</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>5.03</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1">
         <v>41872</v>
@@ -1483,21 +1579,24 @@
         <v>40337</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>4.0199999999999996</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
         <v>41872</v>
@@ -1506,21 +1605,24 @@
         <v>39983</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E34">
         <v>5.0199999999999996</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
         <v>41872</v>
@@ -1529,21 +1631,24 @@
         <v>40086</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>4.0999999999999996</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1">
         <v>41872</v>
@@ -1552,21 +1657,24 @@
         <v>39839</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>5.07</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
         <v>41872</v>
@@ -1575,21 +1683,24 @@
         <v>40580</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E37">
         <v>3.06</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2">
         <v>41872</v>
@@ -1598,7 +1709,7 @@
         <v>39901</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E38">
         <v>5.04</v>
@@ -1606,10 +1717,13 @@
       <c r="G38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2">
         <v>41872</v>
@@ -1618,7 +1732,7 @@
         <v>38897</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E39">
         <v>8.01</v>
@@ -1626,10 +1740,13 @@
       <c r="G39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
         <v>41913</v>
@@ -1638,21 +1755,24 @@
         <v>40222</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E40">
         <v>4.07</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2">
         <v>41920</v>
@@ -1661,21 +1781,24 @@
         <v>40271</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E41">
         <v>4.0599999999999996</v>
       </c>
       <c r="F41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A42" t="s">
         <v>50</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>53</v>
       </c>
       <c r="B42" s="2">
         <v>41920</v>
@@ -1684,21 +1807,24 @@
         <v>40128</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E42">
         <v>5.0999999999999996</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2">
         <v>41920</v>
@@ -1707,21 +1833,24 @@
         <v>40389</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E43">
         <v>4.0199999999999996</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2">
         <v>41929</v>
@@ -1730,21 +1859,24 @@
         <v>40325</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E44">
         <v>4.04</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2">
         <v>41929</v>
@@ -1753,21 +1885,24 @@
         <v>40567</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E45">
         <v>4.08</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2">
         <v>41929</v>
@@ -1776,21 +1911,24 @@
         <v>40362</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E46">
         <v>4.03</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2">
         <v>41929</v>
@@ -1799,63 +1937,66 @@
         <v>40754</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E47">
         <v>3.02</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" ht="12.75" customHeight="1">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" ht="12.75" customHeight="1">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" ht="12.75" customHeight="1">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" ht="12.75" customHeight="1">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" ht="12.75" customHeight="1">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" ht="12.75" customHeight="1">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" ht="12.75" customHeight="1">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" ht="12.75" customHeight="1">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" ht="12.75" customHeight="1">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" ht="12.75" customHeight="1">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" ht="12.75" customHeight="1">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>

--- a/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
+++ b/soc_xsit_expts/soc_xsit_ipad/SOC_XSIT_Runsheet_Bing.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allison\soc_xsit\soc_xsit_expts\soc_xsit_ipad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="320" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
+    <workbookView xWindow="504" yWindow="324" windowWidth="25596" windowHeight="14964" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
   <si>
     <t>subid</t>
   </si>
@@ -190,6 +195,18 @@
   </si>
   <si>
     <t>no-social</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_48</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_49</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_50</t>
+  </si>
+  <si>
+    <t>SOC_XSIT_51</t>
   </si>
 </sst>
 </file>
@@ -723,13 +740,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -775,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -798,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -821,7 +838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -844,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -867,7 +884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -890,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -913,7 +930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -936,7 +953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -959,7 +976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -982,7 +999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1005,7 +1022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1028,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1051,7 +1068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.5" customHeight="1">
+    <row r="15" spans="1:7" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1074,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1097,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1120,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1143,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1166,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1189,7 +1206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1212,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1235,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1258,7 +1275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1281,7 +1298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1304,7 +1321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1327,7 +1344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1350,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1373,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1396,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1">
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1419,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1">
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1442,7 +1459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1">
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1465,7 +1482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1">
+    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1488,7 +1505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1">
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1511,7 +1528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1">
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1534,7 +1551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1">
+    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1557,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1">
+    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1580,7 +1597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1">
+    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1600,7 +1617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1">
+    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1620,7 +1637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1">
+    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1643,7 +1660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1">
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1666,7 +1683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1">
+    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1689,7 +1706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1">
+    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1712,7 +1729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1">
+    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1735,7 +1752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1">
+    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1758,7 +1775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1">
+    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1781,7 +1798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1">
+    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1804,51 +1821,127 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="2:3" ht="12.75" customHeight="1">
+    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="2">
+        <v>41934</v>
+      </c>
+      <c r="C48" s="2">
+        <v>40355</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48">
+        <v>4.04</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="2">
+        <v>41934</v>
+      </c>
+      <c r="C49" s="2">
+        <v>40498</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49">
+        <v>3.11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2">
+        <v>41936</v>
+      </c>
+      <c r="C50" s="2">
+        <v>40287</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2">
+        <v>41936</v>
+      </c>
+      <c r="C51" s="2">
+        <v>40476</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" ht="12.75" customHeight="1">
+    <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" ht="12.75" customHeight="1">
+    <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" ht="12.75" customHeight="1">
+    <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" ht="12.75" customHeight="1">
+    <row r="56" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" ht="12.75" customHeight="1">
+    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" ht="12.75" customHeight="1">
+    <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" ht="12.75" customHeight="1">
+    <row r="59" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
